--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s0_P6_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1878.887370873978</v>
+        <v>477.5973708739726</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.0855246148323</v>
+        <v>9.361415491259855</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.0855246148323</v>
+        <v>9.361415491259855</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1222.870000000006</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>604.4200000000001</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,50 +634,6 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -890,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -973,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1005,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>15.91036991521413</v>
       </c>
     </row>
     <row r="8">
@@ -1043,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1140,62 +1096,6 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1298,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>136.605</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
@@ -1309,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>147.39</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -1320,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>149.995</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -1331,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>145.9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -1342,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>146.71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
@@ -1353,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>167.6400000000006</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -1364,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>171.2250000000006</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
@@ -1375,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>173.3450000000006</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -1386,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>178.0200000000006</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -1397,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>175.2100000000006</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
@@ -1408,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>72.47999999999935</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -1419,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>77.40999999999934</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -1430,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>81.15000000000001</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1441,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>74.90999999999934</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -1452,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>75.71999999999935</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -1463,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1474,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1485,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1496,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1507,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1518,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1529,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -1540,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -1551,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -1562,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -1573,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>108.515</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
@@ -1584,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>96.92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
@@ -1595,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>106.645</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
@@ -1606,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>103.745</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
@@ -1617,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>100.49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
@@ -1628,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>136.605</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -1639,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>147.39</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
@@ -1650,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>149.995</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
@@ -1661,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>145.9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
@@ -1672,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>146.71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
@@ -1683,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>167.6400000000006</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
@@ -1694,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>171.2250000000006</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
@@ -1705,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>173.3450000000006</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45">
@@ -1716,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>178.0200000000006</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -1727,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>175.2100000000006</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8.515000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1796,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.645000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1807,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>3.744999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1818,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.490000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1829,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>36.60499999999999</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1840,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>47.38999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1851,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>49.995</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1862,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>45.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1873,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>46.71000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1884,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>67.64000000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1895,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>71.22500000000059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1906,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>73.3450000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1917,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>78.02000000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1928,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>75.21000000000058</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1975,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1986,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1997,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2008,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2019,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2030,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2041,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2052,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2063,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2074,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2085,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -2096,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2107,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2118,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2129,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -2195,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2206,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2217,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2228,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2239,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2333,105 +2233,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
